--- a/natmiOut/OldD2/LR-pairs_lrc2p/Col2a1-Ddr1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Col2a1-Ddr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,9 +98,6 @@
   </si>
   <si>
     <t>Ddr1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.0355845406461851</v>
+        <v>0.051977</v>
       </c>
       <c r="H2">
-        <v>0.0355845406461851</v>
+        <v>0.103954</v>
       </c>
       <c r="I2">
-        <v>0.09515613399791167</v>
+        <v>0.08717138685919198</v>
       </c>
       <c r="J2">
-        <v>0.09515613399791167</v>
+        <v>0.06264791299175514</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0526729216486042</v>
+        <v>0.052894</v>
       </c>
       <c r="N2">
-        <v>0.0526729216486042</v>
+        <v>0.105788</v>
       </c>
       <c r="O2">
-        <v>0.003571479909717638</v>
+        <v>0.003223137300516178</v>
       </c>
       <c r="P2">
-        <v>0.003571479909717638</v>
+        <v>0.002864772232626178</v>
       </c>
       <c r="Q2">
-        <v>0.001874341721358079</v>
+        <v>0.002749271438</v>
       </c>
       <c r="R2">
-        <v>0.001874341721358079</v>
+        <v>0.010997085752</v>
       </c>
       <c r="S2">
-        <v>0.0003398482208599411</v>
+        <v>0.0002809653485235874</v>
       </c>
       <c r="T2">
-        <v>0.0003398482208599411</v>
+        <v>0.0001794720015707609</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.0355845406461851</v>
+        <v>0.051977</v>
       </c>
       <c r="H3">
-        <v>0.0355845406461851</v>
+        <v>0.103954</v>
       </c>
       <c r="I3">
-        <v>0.09515613399791167</v>
+        <v>0.08717138685919198</v>
       </c>
       <c r="J3">
-        <v>0.09515613399791167</v>
+        <v>0.06264791299175514</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.64733163008117</v>
+        <v>2.815843666666666</v>
       </c>
       <c r="N3">
-        <v>2.64733163008117</v>
+        <v>8.447531</v>
       </c>
       <c r="O3">
-        <v>0.1795019420846099</v>
+        <v>0.1715856383418833</v>
       </c>
       <c r="P3">
-        <v>0.1795019420846099</v>
+        <v>0.2287617900239049</v>
       </c>
       <c r="Q3">
-        <v>0.09420407999455485</v>
+        <v>0.1463591062623333</v>
       </c>
       <c r="R3">
-        <v>0.09420407999455485</v>
+        <v>0.8781546375739999</v>
       </c>
       <c r="S3">
-        <v>0.01708071085388852</v>
+        <v>0.01495735805938171</v>
       </c>
       <c r="T3">
-        <v>0.01708071085388852</v>
+        <v>0.01433144871725575</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.0355845406461851</v>
+        <v>0.051977</v>
       </c>
       <c r="H4">
-        <v>0.0355845406461851</v>
+        <v>0.103954</v>
       </c>
       <c r="I4">
-        <v>0.09515613399791167</v>
+        <v>0.08717138685919198</v>
       </c>
       <c r="J4">
-        <v>0.09515613399791167</v>
+        <v>0.06264791299175514</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.423198927845002</v>
+        <v>0.226329</v>
       </c>
       <c r="N4">
-        <v>0.423198927845002</v>
+        <v>0.678987</v>
       </c>
       <c r="O4">
-        <v>0.0286949427012185</v>
+        <v>0.01379153480713362</v>
       </c>
       <c r="P4">
-        <v>0.0286949427012185</v>
+        <v>0.01838718100270494</v>
       </c>
       <c r="Q4">
-        <v>0.01505933944932243</v>
+        <v>0.011763902433</v>
       </c>
       <c r="R4">
-        <v>0.01505933944932243</v>
+        <v>0.07058341459799999</v>
       </c>
       <c r="S4">
-        <v>0.002730499812739545</v>
+        <v>0.001202227216054657</v>
       </c>
       <c r="T4">
-        <v>0.002730499812739545</v>
+        <v>0.001151918515621112</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.0355845406461851</v>
+        <v>0.051977</v>
       </c>
       <c r="H5">
-        <v>0.0355845406461851</v>
+        <v>0.103954</v>
       </c>
       <c r="I5">
-        <v>0.09515613399791167</v>
+        <v>0.08717138685919198</v>
       </c>
       <c r="J5">
-        <v>0.09515613399791167</v>
+        <v>0.06264791299175514</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.439422695519237</v>
+        <v>0.5616469999999999</v>
       </c>
       <c r="N5">
-        <v>0.439422695519237</v>
+        <v>1.684941</v>
       </c>
       <c r="O5">
-        <v>0.02979499294515617</v>
+        <v>0.03422439965635062</v>
       </c>
       <c r="P5">
-        <v>0.02979499294515617</v>
+        <v>0.04562873095637865</v>
       </c>
       <c r="Q5">
-        <v>0.01563665476956051</v>
+        <v>0.02919272611899999</v>
       </c>
       <c r="R5">
-        <v>0.01563665476956051</v>
+        <v>0.175156356714</v>
       </c>
       <c r="S5">
-        <v>0.002835176341156113</v>
+        <v>0.002983388382467337</v>
       </c>
       <c r="T5">
-        <v>0.002835176341156113</v>
+        <v>0.002858544766879414</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.0355845406461851</v>
+        <v>0.051977</v>
       </c>
       <c r="H6">
-        <v>0.0355845406461851</v>
+        <v>0.103954</v>
       </c>
       <c r="I6">
-        <v>0.09515613399791167</v>
+        <v>0.08717138685919198</v>
       </c>
       <c r="J6">
-        <v>0.09515613399791167</v>
+        <v>0.06264791299175514</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.1855798851687</v>
+        <v>0.5019366666666667</v>
       </c>
       <c r="N6">
-        <v>11.1855798851687</v>
+        <v>1.50581</v>
       </c>
       <c r="O6">
-        <v>0.7584366423592978</v>
+        <v>0.03058590374768572</v>
       </c>
       <c r="P6">
-        <v>0.7584366423592978</v>
+        <v>0.0407778072712484</v>
       </c>
       <c r="Q6">
-        <v>0.3980337220749361</v>
+        <v>0.02608916212333333</v>
       </c>
       <c r="R6">
-        <v>0.3980337220749361</v>
+        <v>0.15653497274</v>
       </c>
       <c r="S6">
-        <v>0.07216989876926755</v>
+        <v>0.002666215648027522</v>
       </c>
       <c r="T6">
-        <v>0.07216989876926755</v>
+        <v>0.00255464452192373</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.21574445352571</v>
+        <v>0.051977</v>
       </c>
       <c r="H7">
-        <v>0.21574445352571</v>
+        <v>0.103954</v>
       </c>
       <c r="I7">
-        <v>0.5769192957447823</v>
+        <v>0.08717138685919198</v>
       </c>
       <c r="J7">
-        <v>0.5769192957447823</v>
+        <v>0.06264791299175514</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.0526729216486042</v>
+        <v>12.2520685</v>
       </c>
       <c r="N7">
-        <v>0.0526729216486042</v>
+        <v>24.504137</v>
       </c>
       <c r="O7">
-        <v>0.003571479909717638</v>
+        <v>0.7465893861464306</v>
       </c>
       <c r="P7">
-        <v>0.003571479909717638</v>
+        <v>0.6635797185131369</v>
       </c>
       <c r="Q7">
-        <v>0.01136389069668065</v>
+        <v>0.6368257644244999</v>
       </c>
       <c r="R7">
-        <v>0.01136389069668065</v>
+        <v>2.547303057698</v>
       </c>
       <c r="S7">
-        <v>0.002060455674280938</v>
+        <v>0.06508123220473716</v>
       </c>
       <c r="T7">
-        <v>0.002060455674280938</v>
+        <v>0.04157188446850436</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.21574445352571</v>
+        <v>0.3153626666666667</v>
       </c>
       <c r="H8">
-        <v>0.21574445352571</v>
+        <v>0.946088</v>
       </c>
       <c r="I8">
-        <v>0.5769192957447823</v>
+        <v>0.5288993404187701</v>
       </c>
       <c r="J8">
-        <v>0.5769192957447823</v>
+        <v>0.5701602507507517</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.64733163008117</v>
+        <v>0.052894</v>
       </c>
       <c r="N8">
-        <v>2.64733163008117</v>
+        <v>0.105788</v>
       </c>
       <c r="O8">
-        <v>0.1795019420846099</v>
+        <v>0.003223137300516178</v>
       </c>
       <c r="P8">
-        <v>0.1795019420846099</v>
+        <v>0.002864772232626178</v>
       </c>
       <c r="Q8">
-        <v>0.571147115833189</v>
+        <v>0.01668079289066667</v>
       </c>
       <c r="R8">
-        <v>0.571147115833189</v>
+        <v>0.100084757344</v>
       </c>
       <c r="S8">
-        <v>0.1035581340122738</v>
+        <v>0.001704715192322141</v>
       </c>
       <c r="T8">
-        <v>0.1035581340122738</v>
+        <v>0.001633379254497932</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.21574445352571</v>
+        <v>0.3153626666666667</v>
       </c>
       <c r="H9">
-        <v>0.21574445352571</v>
+        <v>0.946088</v>
       </c>
       <c r="I9">
-        <v>0.5769192957447823</v>
+        <v>0.5288993404187701</v>
       </c>
       <c r="J9">
-        <v>0.5769192957447823</v>
+        <v>0.5701602507507517</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.423198927845002</v>
+        <v>2.815843666666666</v>
       </c>
       <c r="N9">
-        <v>0.423198927845002</v>
+        <v>8.447531</v>
       </c>
       <c r="O9">
-        <v>0.0286949427012185</v>
+        <v>0.1715856383418833</v>
       </c>
       <c r="P9">
-        <v>0.0286949427012185</v>
+        <v>0.2287617900239049</v>
       </c>
       <c r="Q9">
-        <v>0.09130282142058634</v>
+        <v>0.8880119676364444</v>
       </c>
       <c r="R9">
-        <v>0.09130282142058634</v>
+        <v>7.992107708728</v>
       </c>
       <c r="S9">
-        <v>0.01655466613462386</v>
+        <v>0.09075153094435569</v>
       </c>
       <c r="T9">
-        <v>0.01655466613462386</v>
+        <v>0.1304308795622204</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.21574445352571</v>
+        <v>0.3153626666666667</v>
       </c>
       <c r="H10">
-        <v>0.21574445352571</v>
+        <v>0.946088</v>
       </c>
       <c r="I10">
-        <v>0.5769192957447823</v>
+        <v>0.5288993404187701</v>
       </c>
       <c r="J10">
-        <v>0.5769192957447823</v>
+        <v>0.5701602507507517</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.439422695519237</v>
+        <v>0.226329</v>
       </c>
       <c r="N10">
-        <v>0.439422695519237</v>
+        <v>0.678987</v>
       </c>
       <c r="O10">
-        <v>0.02979499294515617</v>
+        <v>0.01379153480713362</v>
       </c>
       <c r="P10">
-        <v>0.02979499294515617</v>
+        <v>0.01838718100270494</v>
       </c>
       <c r="Q10">
-        <v>0.09480300931159225</v>
+        <v>0.071375716984</v>
       </c>
       <c r="R10">
-        <v>0.09480300931159225</v>
+        <v>0.642381452856</v>
       </c>
       <c r="S10">
-        <v>0.01718930634664025</v>
+        <v>0.007294333662855483</v>
       </c>
       <c r="T10">
-        <v>0.01718930634664025</v>
+        <v>0.01048363973110171</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.21574445352571</v>
+        <v>0.3153626666666667</v>
       </c>
       <c r="H11">
-        <v>0.21574445352571</v>
+        <v>0.946088</v>
       </c>
       <c r="I11">
-        <v>0.5769192957447823</v>
+        <v>0.5288993404187701</v>
       </c>
       <c r="J11">
-        <v>0.5769192957447823</v>
+        <v>0.5701602507507517</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.1855798851687</v>
+        <v>0.5616469999999999</v>
       </c>
       <c r="N11">
-        <v>11.1855798851687</v>
+        <v>1.684941</v>
       </c>
       <c r="O11">
-        <v>0.7584366423592978</v>
+        <v>0.03422439965635062</v>
       </c>
       <c r="P11">
-        <v>0.7584366423592978</v>
+        <v>0.04562873095637865</v>
       </c>
       <c r="Q11">
-        <v>2.413226819693895</v>
+        <v>0.1771224956453333</v>
       </c>
       <c r="R11">
-        <v>2.413226819693895</v>
+        <v>1.594102460808</v>
       </c>
       <c r="S11">
-        <v>0.4375567335769634</v>
+        <v>0.01810126240447222</v>
       </c>
       <c r="T11">
-        <v>0.4375567335769634</v>
+        <v>0.02601568868352744</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.0616938636322684</v>
+        <v>0.3153626666666667</v>
       </c>
       <c r="H12">
-        <v>0.0616938636322684</v>
+        <v>0.946088</v>
       </c>
       <c r="I12">
-        <v>0.1649747178981888</v>
+        <v>0.5288993404187701</v>
       </c>
       <c r="J12">
-        <v>0.1649747178981888</v>
+        <v>0.5701602507507517</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.0526729216486042</v>
+        <v>0.5019366666666667</v>
       </c>
       <c r="N12">
-        <v>0.0526729216486042</v>
+        <v>1.50581</v>
       </c>
       <c r="O12">
-        <v>0.003571479909717638</v>
+        <v>0.03058590374768572</v>
       </c>
       <c r="P12">
-        <v>0.003571479909717638</v>
+        <v>0.0407778072712484</v>
       </c>
       <c r="Q12">
-        <v>0.003249596045302146</v>
+        <v>0.1582920856977778</v>
       </c>
       <c r="R12">
-        <v>0.003249596045302146</v>
+        <v>1.42462877128</v>
       </c>
       <c r="S12">
-        <v>0.0005892038905847164</v>
+        <v>0.01617686431826297</v>
       </c>
       <c r="T12">
-        <v>0.0005892038905847164</v>
+        <v>0.02324988481884081</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.0616938636322684</v>
+        <v>0.3153626666666667</v>
       </c>
       <c r="H13">
-        <v>0.0616938636322684</v>
+        <v>0.946088</v>
       </c>
       <c r="I13">
-        <v>0.1649747178981888</v>
+        <v>0.5288993404187701</v>
       </c>
       <c r="J13">
-        <v>0.1649747178981888</v>
+        <v>0.5701602507507517</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.64733163008117</v>
+        <v>12.2520685</v>
       </c>
       <c r="N13">
-        <v>2.64733163008117</v>
+        <v>24.504137</v>
       </c>
       <c r="O13">
-        <v>0.1795019420846099</v>
+        <v>0.7465893861464306</v>
       </c>
       <c r="P13">
-        <v>0.1795019420846099</v>
+        <v>0.6635797185131369</v>
       </c>
       <c r="Q13">
-        <v>0.1633241165756185</v>
+        <v>3.863844994342667</v>
       </c>
       <c r="R13">
-        <v>0.1633241165756185</v>
+        <v>23.183069966056</v>
       </c>
       <c r="S13">
-        <v>0.02961328225758555</v>
+        <v>0.3948706338965016</v>
       </c>
       <c r="T13">
-        <v>0.02961328225758555</v>
+        <v>0.3783467787005634</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.0616938636322684</v>
+        <v>0.01420033333333333</v>
       </c>
       <c r="H14">
-        <v>0.0616938636322684</v>
+        <v>0.042601</v>
       </c>
       <c r="I14">
-        <v>0.1649747178981888</v>
+        <v>0.02381558671199722</v>
       </c>
       <c r="J14">
-        <v>0.1649747178981888</v>
+        <v>0.0256735069488597</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.423198927845002</v>
+        <v>0.052894</v>
       </c>
       <c r="N14">
-        <v>0.423198927845002</v>
+        <v>0.105788</v>
       </c>
       <c r="O14">
-        <v>0.0286949427012185</v>
+        <v>0.003223137300516178</v>
       </c>
       <c r="P14">
-        <v>0.0286949427012185</v>
+        <v>0.002864772232626178</v>
       </c>
       <c r="Q14">
-        <v>0.02610877694379175</v>
+        <v>0.0007511124313333333</v>
       </c>
       <c r="R14">
-        <v>0.02610877694379175</v>
+        <v>0.004506674588</v>
       </c>
       <c r="S14">
-        <v>0.004733940077238216</v>
+        <v>7.676090586511566E-05</v>
       </c>
       <c r="T14">
-        <v>0.004733940077238216</v>
+        <v>7.354874982122849E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.0616938636322684</v>
+        <v>0.01420033333333333</v>
       </c>
       <c r="H15">
-        <v>0.0616938636322684</v>
+        <v>0.042601</v>
       </c>
       <c r="I15">
-        <v>0.1649747178981888</v>
+        <v>0.02381558671199722</v>
       </c>
       <c r="J15">
-        <v>0.1649747178981888</v>
+        <v>0.0256735069488597</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.439422695519237</v>
+        <v>2.815843666666666</v>
       </c>
       <c r="N15">
-        <v>0.439422695519237</v>
+        <v>8.447531</v>
       </c>
       <c r="O15">
-        <v>0.02979499294515617</v>
+        <v>0.1715856383418833</v>
       </c>
       <c r="P15">
-        <v>0.02979499294515617</v>
+        <v>0.2287617900239049</v>
       </c>
       <c r="Q15">
-        <v>0.0271096838542876</v>
+        <v>0.03998591868122222</v>
       </c>
       <c r="R15">
-        <v>0.0271096838542876</v>
+        <v>0.359873268131</v>
       </c>
       <c r="S15">
-        <v>0.004915420555905665</v>
+        <v>0.004086412648464516</v>
       </c>
       <c r="T15">
-        <v>0.004915420555905665</v>
+        <v>0.005873117405812305</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,247 +1396,247 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.0616938636322684</v>
+        <v>0.01420033333333333</v>
       </c>
       <c r="H16">
-        <v>0.0616938636322684</v>
+        <v>0.042601</v>
       </c>
       <c r="I16">
-        <v>0.1649747178981888</v>
+        <v>0.02381558671199722</v>
       </c>
       <c r="J16">
-        <v>0.1649747178981888</v>
+        <v>0.0256735069488597</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>11.1855798851687</v>
+        <v>0.226329</v>
       </c>
       <c r="N16">
-        <v>11.1855798851687</v>
+        <v>0.678987</v>
       </c>
       <c r="O16">
-        <v>0.7584366423592978</v>
+        <v>0.01379153480713362</v>
       </c>
       <c r="P16">
-        <v>0.7584366423592978</v>
+        <v>0.01838718100270494</v>
       </c>
       <c r="Q16">
-        <v>0.6900816400834422</v>
+        <v>0.003213947243</v>
       </c>
       <c r="R16">
-        <v>0.6900816400834422</v>
+        <v>0.028925525187</v>
       </c>
       <c r="S16">
-        <v>0.1251228711168747</v>
+        <v>0.0003284534930908186</v>
       </c>
       <c r="T16">
-        <v>0.1251228711168747</v>
+        <v>0.0004720634192428864</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.0609366459201686</v>
+        <v>0.01420033333333333</v>
       </c>
       <c r="H17">
-        <v>0.0609366459201686</v>
+        <v>0.042601</v>
       </c>
       <c r="I17">
-        <v>0.162949852359117</v>
+        <v>0.02381558671199722</v>
       </c>
       <c r="J17">
-        <v>0.162949852359117</v>
+        <v>0.0256735069488597</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.0526729216486042</v>
+        <v>0.5616469999999999</v>
       </c>
       <c r="N17">
-        <v>0.0526729216486042</v>
+        <v>1.684941</v>
       </c>
       <c r="O17">
-        <v>0.003571479909717638</v>
+        <v>0.03422439965635062</v>
       </c>
       <c r="P17">
-        <v>0.003571479909717638</v>
+        <v>0.04562873095637865</v>
       </c>
       <c r="Q17">
-        <v>0.003209711176081778</v>
+        <v>0.007975574615666666</v>
       </c>
       <c r="R17">
-        <v>0.003209711176081778</v>
+        <v>0.07178017154099998</v>
       </c>
       <c r="S17">
-        <v>0.0005819721239920417</v>
+        <v>0.0008150741576818659</v>
       </c>
       <c r="T17">
-        <v>0.0005819721239920417</v>
+        <v>0.001171449541276237</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.0609366459201686</v>
+        <v>0.01420033333333333</v>
       </c>
       <c r="H18">
-        <v>0.0609366459201686</v>
+        <v>0.042601</v>
       </c>
       <c r="I18">
-        <v>0.162949852359117</v>
+        <v>0.02381558671199722</v>
       </c>
       <c r="J18">
-        <v>0.162949852359117</v>
+        <v>0.0256735069488597</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.64733163008117</v>
+        <v>0.5019366666666667</v>
       </c>
       <c r="N18">
-        <v>2.64733163008117</v>
+        <v>1.50581</v>
       </c>
       <c r="O18">
-        <v>0.1795019420846099</v>
+        <v>0.03058590374768572</v>
       </c>
       <c r="P18">
-        <v>0.1795019420846099</v>
+        <v>0.0407778072712484</v>
       </c>
       <c r="Q18">
-        <v>0.161319510175519</v>
+        <v>0.00712766797888889</v>
       </c>
       <c r="R18">
-        <v>0.161319510175519</v>
+        <v>0.06414901181</v>
       </c>
       <c r="S18">
-        <v>0.02924981496086195</v>
+        <v>0.00072842124286781</v>
       </c>
       <c r="T18">
-        <v>0.02924981496086195</v>
+        <v>0.001046909318337657</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.0609366459201686</v>
+        <v>0.01420033333333333</v>
       </c>
       <c r="H19">
-        <v>0.0609366459201686</v>
+        <v>0.042601</v>
       </c>
       <c r="I19">
-        <v>0.162949852359117</v>
+        <v>0.02381558671199722</v>
       </c>
       <c r="J19">
-        <v>0.162949852359117</v>
+        <v>0.0256735069488597</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.423198927845002</v>
+        <v>12.2520685</v>
       </c>
       <c r="N19">
-        <v>0.423198927845002</v>
+        <v>24.504137</v>
       </c>
       <c r="O19">
-        <v>0.0286949427012185</v>
+        <v>0.7465893861464306</v>
       </c>
       <c r="P19">
-        <v>0.0286949427012185</v>
+        <v>0.6635797185131369</v>
       </c>
       <c r="Q19">
-        <v>0.02578832321988587</v>
+        <v>0.1739834567228333</v>
       </c>
       <c r="R19">
-        <v>0.02578832321988587</v>
+        <v>1.043900740337</v>
       </c>
       <c r="S19">
-        <v>0.004675836676616877</v>
+        <v>0.01778046426402709</v>
       </c>
       <c r="T19">
-        <v>0.004675836676616877</v>
+        <v>0.01703641851436938</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.0609366459201686</v>
+        <v>0.073389</v>
       </c>
       <c r="H20">
-        <v>0.0609366459201686</v>
+        <v>0.220167</v>
       </c>
       <c r="I20">
-        <v>0.162949852359117</v>
+        <v>0.1230817652078658</v>
       </c>
       <c r="J20">
-        <v>0.162949852359117</v>
+        <v>0.1326837164481959</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.439422695519237</v>
+        <v>0.052894</v>
       </c>
       <c r="N20">
-        <v>0.439422695519237</v>
+        <v>0.105788</v>
       </c>
       <c r="O20">
-        <v>0.02979499294515617</v>
+        <v>0.003223137300516178</v>
       </c>
       <c r="P20">
-        <v>0.02979499294515617</v>
+        <v>0.002864772232626178</v>
       </c>
       <c r="Q20">
-        <v>0.0267769452061418</v>
+        <v>0.003881837766</v>
       </c>
       <c r="R20">
-        <v>0.0267769452061418</v>
+        <v>0.023291026596</v>
       </c>
       <c r="S20">
-        <v>0.004855089701454131</v>
+        <v>0.0003967094284548466</v>
       </c>
       <c r="T20">
-        <v>0.004855089701454131</v>
+        <v>0.0003801086266024368</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1706,1053 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.073389</v>
+      </c>
+      <c r="H21">
+        <v>0.220167</v>
+      </c>
+      <c r="I21">
+        <v>0.1230817652078658</v>
+      </c>
+      <c r="J21">
+        <v>0.1326837164481959</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.815843666666666</v>
+      </c>
+      <c r="N21">
+        <v>8.447531</v>
+      </c>
+      <c r="O21">
+        <v>0.1715856383418833</v>
+      </c>
+      <c r="P21">
+        <v>0.2287617900239049</v>
+      </c>
+      <c r="Q21">
+        <v>0.206651950853</v>
+      </c>
+      <c r="R21">
+        <v>1.859867557677</v>
+      </c>
+      <c r="S21">
+        <v>0.02111906325143745</v>
+      </c>
+      <c r="T21">
+        <v>0.03035296448171352</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.073389</v>
+      </c>
+      <c r="H22">
+        <v>0.220167</v>
+      </c>
+      <c r="I22">
+        <v>0.1230817652078658</v>
+      </c>
+      <c r="J22">
+        <v>0.1326837164481959</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.226329</v>
+      </c>
+      <c r="N22">
+        <v>0.678987</v>
+      </c>
+      <c r="O22">
+        <v>0.01379153480713362</v>
+      </c>
+      <c r="P22">
+        <v>0.01838718100270494</v>
+      </c>
+      <c r="Q22">
+        <v>0.016610058981</v>
+      </c>
+      <c r="R22">
+        <v>0.149490530829</v>
+      </c>
+      <c r="S22">
+        <v>0.00169748644898773</v>
+      </c>
+      <c r="T22">
+        <v>0.002439679510444557</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.073389</v>
+      </c>
+      <c r="H23">
+        <v>0.220167</v>
+      </c>
+      <c r="I23">
+        <v>0.1230817652078658</v>
+      </c>
+      <c r="J23">
+        <v>0.1326837164481959</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.5616469999999999</v>
+      </c>
+      <c r="N23">
+        <v>1.684941</v>
+      </c>
+      <c r="O23">
+        <v>0.03422439965635062</v>
+      </c>
+      <c r="P23">
+        <v>0.04562873095637865</v>
+      </c>
+      <c r="Q23">
+        <v>0.04121871168299999</v>
+      </c>
+      <c r="R23">
+        <v>0.370968405147</v>
+      </c>
+      <c r="S23">
+        <v>0.00421239952288311</v>
+      </c>
+      <c r="T23">
+        <v>0.006054189600107162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.073389</v>
+      </c>
+      <c r="H24">
+        <v>0.220167</v>
+      </c>
+      <c r="I24">
+        <v>0.1230817652078658</v>
+      </c>
+      <c r="J24">
+        <v>0.1326837164481959</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.5019366666666667</v>
+      </c>
+      <c r="N24">
+        <v>1.50581</v>
+      </c>
+      <c r="O24">
+        <v>0.03058590374768572</v>
+      </c>
+      <c r="P24">
+        <v>0.0407778072712484</v>
+      </c>
+      <c r="Q24">
+        <v>0.03683663003</v>
+      </c>
+      <c r="R24">
+        <v>0.33152967027</v>
+      </c>
+      <c r="S24">
+        <v>0.003764567023743037</v>
+      </c>
+      <c r="T24">
+        <v>0.005410551017357502</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.073389</v>
+      </c>
+      <c r="H25">
+        <v>0.220167</v>
+      </c>
+      <c r="I25">
+        <v>0.1230817652078658</v>
+      </c>
+      <c r="J25">
+        <v>0.1326837164481959</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>12.2520685</v>
+      </c>
+      <c r="N25">
+        <v>24.504137</v>
+      </c>
+      <c r="O25">
+        <v>0.7465893861464306</v>
+      </c>
+      <c r="P25">
+        <v>0.6635797185131369</v>
+      </c>
+      <c r="Q25">
+        <v>0.8991670551465</v>
+      </c>
+      <c r="R25">
+        <v>5.395002330879</v>
+      </c>
+      <c r="S25">
+        <v>0.09189153953235962</v>
+      </c>
+      <c r="T25">
+        <v>0.0880462232119707</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.06386066666666666</v>
+      </c>
+      <c r="H26">
+        <v>0.191582</v>
+      </c>
+      <c r="I26">
+        <v>0.1071016580234701</v>
+      </c>
+      <c r="J26">
+        <v>0.115456956603752</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.052894</v>
+      </c>
+      <c r="N26">
+        <v>0.105788</v>
+      </c>
+      <c r="O26">
+        <v>0.003223137300516178</v>
+      </c>
+      <c r="P26">
+        <v>0.002864772232626178</v>
+      </c>
+      <c r="Q26">
+        <v>0.003377846102666666</v>
+      </c>
+      <c r="R26">
+        <v>0.020267076616</v>
+      </c>
+      <c r="S26">
+        <v>0.0003452033489225743</v>
+      </c>
+      <c r="T26">
+        <v>0.0003307578833419543</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.06386066666666666</v>
+      </c>
+      <c r="H27">
+        <v>0.191582</v>
+      </c>
+      <c r="I27">
+        <v>0.1071016580234701</v>
+      </c>
+      <c r="J27">
+        <v>0.115456956603752</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>2.815843666666666</v>
+      </c>
+      <c r="N27">
+        <v>8.447531</v>
+      </c>
+      <c r="O27">
+        <v>0.1715856383418833</v>
+      </c>
+      <c r="P27">
+        <v>0.2287617900239049</v>
+      </c>
+      <c r="Q27">
+        <v>0.1798216537824444</v>
+      </c>
+      <c r="R27">
+        <v>1.618394884042</v>
+      </c>
+      <c r="S27">
+        <v>0.0183771063594312</v>
+      </c>
+      <c r="T27">
+        <v>0.02641214006338661</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.06386066666666666</v>
+      </c>
+      <c r="H28">
+        <v>0.191582</v>
+      </c>
+      <c r="I28">
+        <v>0.1071016580234701</v>
+      </c>
+      <c r="J28">
+        <v>0.115456956603752</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.226329</v>
+      </c>
+      <c r="N28">
+        <v>0.678987</v>
+      </c>
+      <c r="O28">
+        <v>0.01379153480713362</v>
+      </c>
+      <c r="P28">
+        <v>0.01838718100270494</v>
+      </c>
+      <c r="Q28">
+        <v>0.014453520826</v>
+      </c>
+      <c r="R28">
+        <v>0.130081687434</v>
+      </c>
+      <c r="S28">
+        <v>0.00147709624453241</v>
+      </c>
+      <c r="T28">
+        <v>0.002122927959094638</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.0609366459201686</v>
-      </c>
-      <c r="H21">
-        <v>0.0609366459201686</v>
-      </c>
-      <c r="I21">
-        <v>0.162949852359117</v>
-      </c>
-      <c r="J21">
-        <v>0.162949852359117</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>11.1855798851687</v>
-      </c>
-      <c r="N21">
-        <v>11.1855798851687</v>
-      </c>
-      <c r="O21">
-        <v>0.7584366423592978</v>
-      </c>
-      <c r="P21">
-        <v>0.7584366423592978</v>
-      </c>
-      <c r="Q21">
-        <v>0.6816117208742852</v>
-      </c>
-      <c r="R21">
-        <v>0.6816117208742852</v>
-      </c>
-      <c r="S21">
-        <v>0.123587138896192</v>
-      </c>
-      <c r="T21">
-        <v>0.123587138896192</v>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.06386066666666666</v>
+      </c>
+      <c r="H29">
+        <v>0.191582</v>
+      </c>
+      <c r="I29">
+        <v>0.1071016580234701</v>
+      </c>
+      <c r="J29">
+        <v>0.115456956603752</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.5616469999999999</v>
+      </c>
+      <c r="N29">
+        <v>1.684941</v>
+      </c>
+      <c r="O29">
+        <v>0.03422439965635062</v>
+      </c>
+      <c r="P29">
+        <v>0.04562873095637865</v>
+      </c>
+      <c r="Q29">
+        <v>0.03586715185133332</v>
+      </c>
+      <c r="R29">
+        <v>0.322804366662</v>
+      </c>
+      <c r="S29">
+        <v>0.003665489948053032</v>
+      </c>
+      <c r="T29">
+        <v>0.005268154409914885</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.06386066666666666</v>
+      </c>
+      <c r="H30">
+        <v>0.191582</v>
+      </c>
+      <c r="I30">
+        <v>0.1071016580234701</v>
+      </c>
+      <c r="J30">
+        <v>0.115456956603752</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.5019366666666667</v>
+      </c>
+      <c r="N30">
+        <v>1.50581</v>
+      </c>
+      <c r="O30">
+        <v>0.03058590374768572</v>
+      </c>
+      <c r="P30">
+        <v>0.0407778072712484</v>
+      </c>
+      <c r="Q30">
+        <v>0.03205401015777778</v>
+      </c>
+      <c r="R30">
+        <v>0.28848609142</v>
+      </c>
+      <c r="S30">
+        <v>0.003275801003523409</v>
+      </c>
+      <c r="T30">
+        <v>0.004708081524512689</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.06386066666666666</v>
+      </c>
+      <c r="H31">
+        <v>0.191582</v>
+      </c>
+      <c r="I31">
+        <v>0.1071016580234701</v>
+      </c>
+      <c r="J31">
+        <v>0.115456956603752</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>12.2520685</v>
+      </c>
+      <c r="N31">
+        <v>24.504137</v>
+      </c>
+      <c r="O31">
+        <v>0.7465893861464306</v>
+      </c>
+      <c r="P31">
+        <v>0.6635797185131369</v>
+      </c>
+      <c r="Q31">
+        <v>0.7824252624556666</v>
+      </c>
+      <c r="R31">
+        <v>4.694551574734</v>
+      </c>
+      <c r="S31">
+        <v>0.07996096111900748</v>
+      </c>
+      <c r="T31">
+        <v>0.07661489476350121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.0774725</v>
+      </c>
+      <c r="H32">
+        <v>0.154945</v>
+      </c>
+      <c r="I32">
+        <v>0.129930262778705</v>
+      </c>
+      <c r="J32">
+        <v>0.09337765625668566</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.052894</v>
+      </c>
+      <c r="N32">
+        <v>0.105788</v>
+      </c>
+      <c r="O32">
+        <v>0.003223137300516178</v>
+      </c>
+      <c r="P32">
+        <v>0.002864772232626178</v>
+      </c>
+      <c r="Q32">
+        <v>0.004097830415</v>
+      </c>
+      <c r="R32">
+        <v>0.01639132166</v>
+      </c>
+      <c r="S32">
+        <v>0.0004187830764279129</v>
+      </c>
+      <c r="T32">
+        <v>0.0002675057167918651</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.0774725</v>
+      </c>
+      <c r="H33">
+        <v>0.154945</v>
+      </c>
+      <c r="I33">
+        <v>0.129930262778705</v>
+      </c>
+      <c r="J33">
+        <v>0.09337765625668566</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>2.815843666666666</v>
+      </c>
+      <c r="N33">
+        <v>8.447531</v>
+      </c>
+      <c r="O33">
+        <v>0.1715856383418833</v>
+      </c>
+      <c r="P33">
+        <v>0.2287617900239049</v>
+      </c>
+      <c r="Q33">
+        <v>0.2181504484658333</v>
+      </c>
+      <c r="R33">
+        <v>1.308902690795</v>
+      </c>
+      <c r="S33">
+        <v>0.02229416707881274</v>
+      </c>
+      <c r="T33">
+        <v>0.02136123979351629</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.0774725</v>
+      </c>
+      <c r="H34">
+        <v>0.154945</v>
+      </c>
+      <c r="I34">
+        <v>0.129930262778705</v>
+      </c>
+      <c r="J34">
+        <v>0.09337765625668566</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.226329</v>
+      </c>
+      <c r="N34">
+        <v>0.678987</v>
+      </c>
+      <c r="O34">
+        <v>0.01379153480713362</v>
+      </c>
+      <c r="P34">
+        <v>0.01838718100270494</v>
+      </c>
+      <c r="Q34">
+        <v>0.0175342734525</v>
+      </c>
+      <c r="R34">
+        <v>0.105205640715</v>
+      </c>
+      <c r="S34">
+        <v>0.001791937741612529</v>
+      </c>
+      <c r="T34">
+        <v>0.001716951867200043</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.0774725</v>
+      </c>
+      <c r="H35">
+        <v>0.154945</v>
+      </c>
+      <c r="I35">
+        <v>0.129930262778705</v>
+      </c>
+      <c r="J35">
+        <v>0.09337765625668566</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.5616469999999999</v>
+      </c>
+      <c r="N35">
+        <v>1.684941</v>
+      </c>
+      <c r="O35">
+        <v>0.03422439965635062</v>
+      </c>
+      <c r="P35">
+        <v>0.04562873095637865</v>
+      </c>
+      <c r="Q35">
+        <v>0.04351219720749999</v>
+      </c>
+      <c r="R35">
+        <v>0.261073183245</v>
+      </c>
+      <c r="S35">
+        <v>0.004446785240793057</v>
+      </c>
+      <c r="T35">
+        <v>0.004260703954673518</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.0774725</v>
+      </c>
+      <c r="H36">
+        <v>0.154945</v>
+      </c>
+      <c r="I36">
+        <v>0.129930262778705</v>
+      </c>
+      <c r="J36">
+        <v>0.09337765625668566</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.5019366666666667</v>
+      </c>
+      <c r="N36">
+        <v>1.50581</v>
+      </c>
+      <c r="O36">
+        <v>0.03058590374768572</v>
+      </c>
+      <c r="P36">
+        <v>0.0407778072712484</v>
+      </c>
+      <c r="Q36">
+        <v>0.03888628840833334</v>
+      </c>
+      <c r="R36">
+        <v>0.23331773045</v>
+      </c>
+      <c r="S36">
+        <v>0.003974034511260985</v>
+      </c>
+      <c r="T36">
+        <v>0.00380773607027601</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.0774725</v>
+      </c>
+      <c r="H37">
+        <v>0.154945</v>
+      </c>
+      <c r="I37">
+        <v>0.129930262778705</v>
+      </c>
+      <c r="J37">
+        <v>0.09337765625668566</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>12.2520685</v>
+      </c>
+      <c r="N37">
+        <v>24.504137</v>
+      </c>
+      <c r="O37">
+        <v>0.7465893861464306</v>
+      </c>
+      <c r="P37">
+        <v>0.6635797185131369</v>
+      </c>
+      <c r="Q37">
+        <v>0.94919837686625</v>
+      </c>
+      <c r="R37">
+        <v>3.796793507465</v>
+      </c>
+      <c r="S37">
+        <v>0.0970045551297978</v>
+      </c>
+      <c r="T37">
+        <v>0.06196351885422793</v>
       </c>
     </row>
   </sheetData>
